--- a/bill_master.xlsx
+++ b/bill_master.xlsx
@@ -278,15 +278,9 @@
     </r>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>C0603</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5, C6, C7, C9, C10, C11, C12, C13, C14, C15, C17, C19</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Керамический конденсатор </t>
     </r>
@@ -392,6 +386,12 @@
   </si>
   <si>
     <t>R805</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5, C6, C10, C12, C13, C14, C17, C19</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -757,7 +757,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -969,64 +969,64 @@
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>25</v>
@@ -1038,37 +1038,37 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="6"/>
     </row>
